--- a/Projeto Controle Financeiro.xlsx
+++ b/Projeto Controle Financeiro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Estudos\DIO\BootCamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AD6DC8-280E-45C6-A899-EFFDDAE77F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAD1668-F538-4FF7-AD1C-DE19F27D6F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="0" firstSheet="2" activeTab="2" xr2:uid="{809B4DD3-5A7A-4C1E-BEAB-59FFC4FDB667}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="322" firstSheet="2" activeTab="2" xr2:uid="{809B4DD3-5A7A-4C1E-BEAB-59FFC4FDB667}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados" sheetId="1" state="hidden" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="25" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -488,7 +488,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -503,7 +503,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -536,6 +536,30 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -575,35 +599,11 @@
         <horizontal/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="SlicerStyleDark2 2" pivot="0" table="0" count="10" xr9:uid="{ACF527ED-1B76-44B3-9509-F75ECBDCDAE4}">
-      <tableStyleElement type="wholeTable" dxfId="7"/>
-      <tableStyleElement type="headerRow" dxfId="6"/>
+      <tableStyleElement type="wholeTable" dxfId="9"/>
+      <tableStyleElement type="headerRow" dxfId="8"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1584,33 +1584,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill>
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1"/>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="84000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="1"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
-                <a:prstClr val="black">
-                  <a:alpha val="20000"/>
-                </a:prstClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1992,500 +1966,20 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[Projeto Controle Financeiro.xlsx]Informações!Tabela dinâmica2</c:name>
-    <c:fmtId val="12"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:gradFill>
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="75000">
-                <a:srgbClr val="FB6F54"/>
-              </a:gs>
-              <a:gs pos="0">
-                <a:srgbClr val="FB6F54"/>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="bg1"/>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="1"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
-              <a:prstClr val="black">
-                <a:alpha val="20000"/>
-              </a:prstClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill>
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1"/>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="84000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="1"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
-                <a:prstClr val="black">
-                  <a:alpha val="20000"/>
-                </a:prstClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="bg2">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="3"/>
-        <c:spPr>
-          <a:gradFill>
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="75000">
-                <a:srgbClr val="FB6F54"/>
-              </a:gs>
-              <a:gs pos="0">
-                <a:srgbClr val="FB6F54"/>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="bg1"/>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="1"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
-              <a:prstClr val="black">
-                <a:alpha val="20000"/>
-              </a:prstClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="4"/>
-        <c:spPr>
-          <a:gradFill>
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="75000">
-                <a:srgbClr val="FB6F54"/>
-              </a:gs>
-              <a:gs pos="0">
-                <a:srgbClr val="FB6F54"/>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="bg1"/>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="1"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
-              <a:prstClr val="black">
-                <a:alpha val="20000"/>
-              </a:prstClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="bg2">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="5"/>
-        <c:spPr>
-          <a:gradFill>
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="75000">
-                <a:srgbClr val="FB6F54"/>
-              </a:gs>
-              <a:gs pos="0">
-                <a:srgbClr val="FB6F54"/>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="bg1"/>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="1"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
-              <a:prstClr val="black">
-                <a:alpha val="20000"/>
-              </a:prstClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="bg2">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="41"/>
-        <c:axId val="204644687"/>
-        <c:axId val="204646607"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="204644687"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="204646607"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="204646607"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="&quot;R$&quot;#,##0.00_);[Red]\(&quot;R$&quot;#,##0.00\)" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204644687"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.2570989920960583E-2"/>
+          <c:y val="5.9218226157669696E-2"/>
+          <c:w val="0.91742901007903943"/>
+          <c:h val="0.87372354414089271"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -2655,7 +2149,7 @@
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7429</c:v>
+                  <c:v>13095</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2771,6 +2265,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="357531583"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2778,7 +2273,7 @@
       </c:catAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -2934,46 +2429,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="204">
   <cs:axisTitle>
@@ -4109,573 +3564,6 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="204">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200">
-      <a:effectLst/>
-    </cs:defRPr>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="68000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="85000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="1"/>
-        <a:tileRect/>
-      </a:gradFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr/>
-    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-          <a:alpha val="75000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" b="1" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr"/>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="84000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="1"/>
-      </a:gradFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr"/>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="84000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="1"/>
-      </a:gradFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="84000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr"/>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="84000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="1"/>
-      </a:gradFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="35000"/>
-          <a:lumOff val="65000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr kern="1200">
-      <a:effectLst/>
-    </cs:defRPr>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5727,8 +4615,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>150019</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="18" name="Mês">
@@ -5751,7 +4639,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -6371,7 +5259,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>69057</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>92863</xdr:rowOff>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
@@ -6381,10 +5269,10 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="34" name="Agrupar 33">
+        <xdr:cNvPr id="10" name="Agrupar 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8396857-02D9-4DE1-82F4-245F18C8774D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2650D3E-7F8A-6C64-1E4F-7ECAA7F58625}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6392,71 +5280,235 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8308182" y="1997863"/>
-          <a:ext cx="4645818" cy="3431386"/>
-          <a:chOff x="1619249" y="95251"/>
-          <a:chExt cx="6274596" cy="3393281"/>
+          <a:off x="8308182" y="1976437"/>
+          <a:ext cx="4645818" cy="3452812"/>
+          <a:chOff x="8308182" y="1976437"/>
+          <a:chExt cx="4645818" cy="3452812"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="35" name="Retângulo: Cantos Arredondados 34">
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="34" name="Agrupar 33">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1030FFE-D031-2015-88F4-37B161B0CFE2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8396857-02D9-4DE1-82F4-245F18C8774D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="1619255" y="154782"/>
-            <a:ext cx="6274590" cy="3333750"/>
+            <a:off x="8308182" y="1997863"/>
+            <a:ext cx="4645818" cy="3431386"/>
+            <a:chOff x="1619249" y="95251"/>
+            <a:chExt cx="6274596" cy="3393281"/>
           </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 7738"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="35" name="Retângulo: Cantos Arredondados 34">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1030FFE-D031-2015-88F4-37B161B0CFE2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1619255" y="154782"/>
+              <a:ext cx="6274590" cy="3333750"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 7738"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="pt-BR" sz="1100" kern="1200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="37" name="Retângulo: Cantos Superiores Arredondados 36">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F199F59-572A-7F39-20A7-174DE1034641}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1619249" y="142879"/>
+              <a:ext cx="6274594" cy="357188"/>
+            </a:xfrm>
+            <a:prstGeom prst="round2SameRect">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 50000"/>
+                <a:gd name="adj2" fmla="val 0"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FB6F54"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="pt-BR" sz="1100" kern="1200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="38" name="CaixaDeTexto 37">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEE6C6F0-55E3-E9C0-BE4A-7904EF5404D5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2202657" y="95251"/>
+              <a:ext cx="1952625" cy="440531"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="pt-BR" sz="1100" kern="1200"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="2000" b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t>Econômias</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="39" name="Gráfico 38" descr="Cofrinho estrutura de tópicos">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32350847-CC6C-5037-43E9-B022D2F57E65}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+              <a:extLst>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:srcRect/>
+            <a:stretch/>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1840684" y="177852"/>
+              <a:ext cx="385784" cy="282469"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
       <xdr:graphicFrame macro="">
         <xdr:nvGraphicFramePr>
-          <xdr:cNvPr id="36" name="Gráfico 35">
+          <xdr:cNvPr id="40" name="Gráfico 39">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{354CD2A9-2CC0-63C9-58C5-C72AA6FEE78B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43AF9D66-DAA0-4A0B-AECC-8F8F0187785B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6465,198 +5517,16 @@
           </xdr:cNvGraphicFramePr>
         </xdr:nvGraphicFramePr>
         <xdr:xfrm>
-          <a:off x="1666875" y="476250"/>
-          <a:ext cx="6143625" cy="2702719"/>
+          <a:off x="8736807" y="1976437"/>
+          <a:ext cx="3383755" cy="3431376"/>
         </xdr:xfrm>
         <a:graphic>
           <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
           </a:graphicData>
         </a:graphic>
       </xdr:graphicFrame>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="37" name="Retângulo: Cantos Superiores Arredondados 36">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F199F59-572A-7F39-20A7-174DE1034641}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1619249" y="142879"/>
-            <a:ext cx="6274594" cy="357188"/>
-          </a:xfrm>
-          <a:prstGeom prst="round2SameRect">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val 50000"/>
-              <a:gd name="adj2" fmla="val 0"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="FB6F54"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="pt-BR" sz="1100" kern="1200"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="38" name="CaixaDeTexto 37">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEE6C6F0-55E3-E9C0-BE4A-7904EF5404D5}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2202657" y="95251"/>
-            <a:ext cx="1952625" cy="440531"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="2000" b="1" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>Econômias</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="39" name="Gráfico 38" descr="Cofrinho estrutura de tópicos">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32350847-CC6C-5037-43E9-B022D2F57E65}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
-            <a:extLst>
-              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId15"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1840684" y="177852"/>
-            <a:ext cx="385784" cy="282469"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
     </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>497682</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>73813</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="40" name="Gráfico 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43AF9D66-DAA0-4A0B-AECC-8F8F0187785B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7175,130 +6045,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C4B1D8BE-FE94-4B40-8E1A-8E1397C62E81}" name="Tabela dinâmica2" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
-  <location ref="F4:G9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="8">
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="20">
-        <item x="1"/>
-        <item x="12"/>
-        <item x="5"/>
-        <item x="9"/>
-        <item x="16"/>
-        <item x="15"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="13"/>
-        <item x="11"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="18"/>
-        <item x="6"/>
-        <item x="14"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="8" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="2" item="0" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Soma de Valor" fld="5" baseField="0" baseItem="0" numFmtId="8"/>
-  </dataFields>
-  <chartFormats count="3">
-    <chartFormat chart="5" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="10"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="12" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3A52A52A-DA70-4A78-93E8-CF878DD65E7A}" name="Tabela dinâmica1" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3A52A52A-DA70-4A78-93E8-CF878DD65E7A}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20">
   <location ref="B3:C19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField numFmtId="14" showAll="0"/>
@@ -7432,6 +6179,120 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C4B1D8BE-FE94-4B40-8E1A-8E1397C62E81}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
+  <location ref="F4:G9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="20">
+        <item x="1"/>
+        <item x="12"/>
+        <item x="5"/>
+        <item x="9"/>
+        <item x="16"/>
+        <item x="15"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="13"/>
+        <item x="11"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="18"/>
+        <item x="6"/>
+        <item x="14"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="8" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="2" item="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Soma de Valor" fld="5" baseField="0" baseItem="0" numFmtId="8"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="5" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Mês" xr10:uid="{BF249822-538C-4EF7-8EDC-CA06E6359CC0}" sourceName="Mês">
   <pivotTables>
@@ -7467,13 +6328,13 @@
   <autoFilter ref="A1:H45" xr:uid="{0468447A-D112-4FC4-9302-5A604514EC6C}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{DF1F4FAE-D7AB-4726-9BD4-8969320EEEB8}" name="Data"/>
-    <tableColumn id="8" xr3:uid="{AACB77BE-3F57-4A8A-9CB4-2D36B9E4EF28}" name="Mês" dataDxfId="8">
+    <tableColumn id="8" xr3:uid="{AACB77BE-3F57-4A8A-9CB4-2D36B9E4EF28}" name="Mês" dataDxfId="7">
       <calculatedColumnFormula>MONTH(tbl_data[[#This Row],[Data]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{E90B2C1C-1CE0-414B-BE19-AA40310F3FD0}" name="Tipo"/>
     <tableColumn id="3" xr3:uid="{07AF092F-B290-4F1C-8C5B-520F5F1CF9F0}" name="Categoria"/>
     <tableColumn id="4" xr3:uid="{B9CE0724-2B73-4D60-86E1-91AAA5F30366}" name="Descrição"/>
-    <tableColumn id="5" xr3:uid="{ADE2C18D-3D4C-4A42-AB17-C8FDA3F4CE75}" name="Valor" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{ADE2C18D-3D4C-4A42-AB17-C8FDA3F4CE75}" name="Valor" dataDxfId="6"/>
     <tableColumn id="6" xr3:uid="{E950B0D4-E300-4E08-95A7-7325CA9A6713}" name="Operação"/>
     <tableColumn id="7" xr3:uid="{66EEDA63-12F4-4797-B1D4-4AE0FE0B8549}" name="Status"/>
   </tableColumns>
@@ -7485,8 +6346,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1B78E958-F0E7-403C-9688-2884772CBE34}" name="Tabela2" displayName="Tabela2" ref="C6:D21" totalsRowCount="1" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="C6:D20" xr:uid="{1B78E958-F0E7-403C-9688-2884772CBE34}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{CD45206C-2C2A-43A2-9076-91F33269E007}" name="Data de Lançamento" dataDxfId="2" totalsRowDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{FD809F64-CA1A-4A8C-959A-57471A18AE00}" name="Depósito Reservado" dataDxfId="3" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{CD45206C-2C2A-43A2-9076-91F33269E007}" name="Data de Lançamento" dataDxfId="3" totalsRowDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{FD809F64-CA1A-4A8C-959A-57471A18AE00}" name="Depósito Reservado" dataDxfId="2" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9270,7 +8131,7 @@
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9298,7 +8159,7 @@
   <dimension ref="C1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9380,7 +8241,7 @@
         <v>45609</v>
       </c>
       <c r="D14" s="13">
-        <v>769</v>
+        <v>6435</v>
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.25">
@@ -9441,7 +8302,7 @@
       </c>
       <c r="D23" s="16">
         <f>SUM(Tabela2[Depósito Reservado])</f>
-        <v>7429</v>
+        <v>13095</v>
       </c>
     </row>
     <row r="24" spans="3:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
